--- a/quanlysinhvien/danhsachchuyennganh/lopchuyennganh/IT124_dsSV.xlsx
+++ b/quanlysinhvien/danhsachchuyennganh/lopchuyennganh/IT124_dsSV.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Mã sinh viên</t>
   </si>
@@ -192,25 +192,25 @@
     </row>
     <row r="2">
       <c r="B2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -219,30 +219,30 @@
         <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -251,7 +251,7 @@
         <v>18</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
     </row>
   </sheetData>
